--- a/SchedulingData/dynamic10/pso/scheduling1_11.xlsx
+++ b/SchedulingData/dynamic10/pso/scheduling1_11.xlsx
@@ -466,41 +466,41 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.40000000000001</v>
+        <v>58.8</v>
       </c>
       <c r="E2" t="n">
-        <v>25.14</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>86.2</v>
+        <v>44.24</v>
       </c>
       <c r="E3" t="n">
-        <v>25.52</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -511,7 +511,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>65.59999999999999</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="E4" t="n">
         <v>26.1</v>
@@ -519,59 +519,59 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>39.24</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>26.776</v>
+        <v>26.984</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>86.2</v>
+        <v>44.24</v>
       </c>
       <c r="D6" t="n">
-        <v>132.66</v>
+        <v>83.14</v>
       </c>
       <c r="E6" t="n">
-        <v>22.504</v>
+        <v>24.016</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>119.1</v>
+        <v>79.66</v>
       </c>
       <c r="E7" t="n">
-        <v>22.86</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="8">
@@ -580,93 +580,93 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>71.45999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>40.88</v>
+        <v>115.4</v>
       </c>
       <c r="E8" t="n">
-        <v>26.612</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>40.88</v>
+        <v>58.8</v>
       </c>
       <c r="D9" t="n">
-        <v>86.94</v>
+        <v>123.6</v>
       </c>
       <c r="E9" t="n">
-        <v>24.116</v>
+        <v>20.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>39.24</v>
+        <v>79.66</v>
       </c>
       <c r="D10" t="n">
-        <v>125.14</v>
+        <v>136.18</v>
       </c>
       <c r="E10" t="n">
-        <v>24.256</v>
+        <v>22.172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>123.6</v>
       </c>
       <c r="D11" t="n">
-        <v>53.8</v>
+        <v>189.04</v>
       </c>
       <c r="E11" t="n">
-        <v>25.32</v>
+        <v>16.036</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>119.1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>157.44</v>
+        <v>63.1</v>
       </c>
       <c r="E12" t="n">
-        <v>20.156</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="13">
@@ -675,74 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>70.40000000000001</v>
+        <v>189.04</v>
       </c>
       <c r="D13" t="n">
-        <v>119.66</v>
+        <v>250.34</v>
       </c>
       <c r="E13" t="n">
-        <v>21.344</v>
+        <v>13.516</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>157.44</v>
+        <v>63.1</v>
       </c>
       <c r="D14" t="n">
-        <v>212.1</v>
+        <v>135.3</v>
       </c>
       <c r="E14" t="n">
-        <v>17.3</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>125.14</v>
+        <v>136.18</v>
       </c>
       <c r="D15" t="n">
-        <v>175.64</v>
+        <v>193.78</v>
       </c>
       <c r="E15" t="n">
-        <v>20.336</v>
+        <v>17.552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>132.66</v>
+        <v>83.14</v>
       </c>
       <c r="D16" t="n">
-        <v>189.18</v>
+        <v>135.14</v>
       </c>
       <c r="E16" t="n">
-        <v>18.472</v>
+        <v>21.416</v>
       </c>
     </row>
     <row r="17">
@@ -751,112 +751,112 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>212.1</v>
+        <v>135.14</v>
       </c>
       <c r="D17" t="n">
-        <v>270.84</v>
+        <v>183.74</v>
       </c>
       <c r="E17" t="n">
-        <v>14.036</v>
+        <v>18.176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>86.94</v>
+        <v>183.74</v>
       </c>
       <c r="D18" t="n">
-        <v>153.5</v>
+        <v>243.3</v>
       </c>
       <c r="E18" t="n">
-        <v>21.1</v>
+        <v>15.32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>119.66</v>
+        <v>115.4</v>
       </c>
       <c r="D19" t="n">
-        <v>165.78</v>
+        <v>162.9</v>
       </c>
       <c r="E19" t="n">
-        <v>18.352</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>53.8</v>
+        <v>135.3</v>
       </c>
       <c r="D20" t="n">
-        <v>155.7</v>
+        <v>196.4</v>
       </c>
       <c r="E20" t="n">
-        <v>20.7</v>
+        <v>16.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>175.64</v>
+        <v>193.78</v>
       </c>
       <c r="D21" t="n">
-        <v>258.14</v>
+        <v>244.94</v>
       </c>
       <c r="E21" t="n">
-        <v>16.196</v>
+        <v>15.056</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>189.18</v>
+        <v>196.4</v>
       </c>
       <c r="D22" t="n">
-        <v>231.58</v>
+        <v>235.96</v>
       </c>
       <c r="E22" t="n">
-        <v>15.872</v>
+        <v>13.944</v>
       </c>
     </row>
     <row r="23">
@@ -865,17 +865,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>155.7</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>201</v>
+        <v>122.06</v>
       </c>
       <c r="E23" t="n">
-        <v>18.28</v>
+        <v>23.084</v>
       </c>
     </row>
     <row r="24">
@@ -884,17 +884,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>270.84</v>
+        <v>243.3</v>
       </c>
       <c r="D24" t="n">
-        <v>345.96</v>
+        <v>293.8</v>
       </c>
       <c r="E24" t="n">
-        <v>11.124</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="25">
@@ -903,41 +903,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>201</v>
+        <v>122.06</v>
       </c>
       <c r="D25" t="n">
-        <v>268.3</v>
+        <v>207.04</v>
       </c>
       <c r="E25" t="n">
-        <v>15.16</v>
+        <v>19.696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>258.14</v>
+        <v>244.94</v>
       </c>
       <c r="D26" t="n">
-        <v>301.94</v>
+        <v>296.06</v>
       </c>
       <c r="E26" t="n">
-        <v>13.436</v>
+        <v>12.064</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -945,32 +945,32 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>165.78</v>
+        <v>235.96</v>
       </c>
       <c r="D27" t="n">
-        <v>214.44</v>
+        <v>299.52</v>
       </c>
       <c r="E27" t="n">
-        <v>15.596</v>
+        <v>11.188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>301.94</v>
+        <v>250.34</v>
       </c>
       <c r="D28" t="n">
-        <v>343.4</v>
+        <v>335.36</v>
       </c>
       <c r="E28" t="n">
-        <v>10.42</v>
+        <v>10.604</v>
       </c>
     </row>
     <row r="29">
@@ -979,55 +979,55 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>231.58</v>
+        <v>296.06</v>
       </c>
       <c r="D29" t="n">
-        <v>287.12</v>
+        <v>357.12</v>
       </c>
       <c r="E29" t="n">
-        <v>11.448</v>
+        <v>9.048</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>153.5</v>
+        <v>207.04</v>
       </c>
       <c r="D30" t="n">
-        <v>230.9</v>
+        <v>282.04</v>
       </c>
       <c r="E30" t="n">
-        <v>16.48</v>
+        <v>15.776</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>268.3</v>
+        <v>299.52</v>
       </c>
       <c r="D31" t="n">
-        <v>317.76</v>
+        <v>357.56</v>
       </c>
       <c r="E31" t="n">
-        <v>12.344</v>
+        <v>8.484</v>
       </c>
     </row>
   </sheetData>
